--- a/Pages/ODK/ODKAssets/A1_Village_Identification.xlsx
+++ b/Pages/ODK/ODKAssets/A1_Village_Identification.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariellelandau/Desktop/Tetra Tech/Tech Documentation/odk_forms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariellelandau/Desktop/Tetra Tech/ilrg.github.io/Pages/ODK/ODKAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8F65AD-EA6F-EC4A-8715-0B122EDC9196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4E6228-2806-4F4C-9213-8B7DC02B5CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28800" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2205" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="929">
   <si>
     <t>type</t>
   </si>
@@ -2820,6 +2820,9 @@
   </si>
   <si>
     <t>org</t>
+  </si>
+  <si>
+    <t>allow_choice_duplicates</t>
   </si>
 </sst>
 </file>
@@ -3588,11 +3591,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H26" sqref="H26"/>
+      <selection pane="bottomRight" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12198,10 +12201,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12213,7 +12216,7 @@
     <col min="5" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -12226,8 +12229,11 @@
       <c r="D1" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="67" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>205</v>
       </c>
@@ -12239,6 +12245,9 @@
       </c>
       <c r="D2" s="67" t="s">
         <v>216</v>
+      </c>
+      <c r="E2" s="67" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
